--- a/excel/Machinery_Part/Section9.xlsx
+++ b/excel/Machinery_Part/Section9.xlsx
@@ -10650,512 +10650,512 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1  －  chemical injection unit</t>
+          <t>－1    chemical injection unit△4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>(+)Other &amp; (+)necessary &amp; (+)fittings &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>(+)Other &amp; (+)necessary &amp; (+)fittings &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)Other &amp; (+)necessary &amp; (+)fittings &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>(+)1 &amp; (+)－ &amp; (+)unit &amp; (-)－1 &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>(+)Other &amp; (+)necessary &amp; (+)fittings &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)1△ &amp; (+)1 &amp; (+)－ &amp; (+)unit &amp; (-)－1 &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>(+)Other &amp; (+)necessary &amp; (+)fittings &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)Other &amp; (+)necessary &amp; (+)fittings &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>(+)Other &amp; (+)necessary &amp; (+)fittings &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)Other &amp; (+)necessary &amp; (+)fittings &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>(+)Other &amp; (+)necessary &amp; (+)fittings &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)Other &amp; (+)necessary &amp; (+)fittings &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="BB7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="BC7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="BD7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="BE7" t="inlineStr">
         <is>
-          <t>(+)Other &amp; (+)necessary &amp; (+)fittings &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)Other &amp; (+)necessary &amp; (+)fittings &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="BG7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="BI7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="BJ7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="BK7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="BL7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="BM7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="BN7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="BO7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="BP7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="BQ7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="BR7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="BS7" t="inlineStr">
         <is>
-          <t>(+)Other &amp; (+)necessary &amp; (+)fittings &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)Other &amp; (+)necessary &amp; (+)fittings &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="BT7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="BU7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="BV7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="BW7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="BX7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="BY7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="BZ7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="CA7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="CB7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="CC7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="CD7" t="inlineStr">
         <is>
-          <t>(+)Other &amp; (+)necessary &amp; (+)fittings &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)Other &amp; (+)necessary &amp; (+)fittings &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="CE7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="CF7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="CG7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="CH7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="CI7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="CJ7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="CK7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="CL7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="CM7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="CN7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="CO7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="CP7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="CQ7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="CR7" t="inlineStr">
         <is>
-          <t>(+)Other &amp; (+)necessary &amp; (+)fittings &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)Other &amp; (+)necessary &amp; (+)fittings &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="CS7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="CT7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="CU7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="CV7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="CW7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
       <c r="CX7" t="inlineStr">
         <is>
-          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)1 &amp; (-)－ &amp; (-)chemical &amp; (-)injection &amp; (-)unit</t>
+          <t>(+)9.2 &amp; (+)FITTING &amp; (+)AND &amp; (+)ACCESSORY &amp; (+). &amp; (-)－1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit△4</t>
         </is>
       </c>
     </row>
